--- a/planilhas/placas.xlsx
+++ b/planilhas/placas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138FE40-6E49-4E2C-AF64-B5FBF8BE909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E36316B-6F50-4D50-B371-563CC9E8DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>FABRICANTE</t>
   </si>
@@ -56,9 +56,6 @@
     <t>NOME REF</t>
   </si>
   <si>
-    <t>LEAPTON MONO 550</t>
-  </si>
-  <si>
     <t>Sunova 505</t>
   </si>
   <si>
@@ -183,6 +180,63 @@
   </si>
   <si>
     <t>GCL 405 Mono</t>
+  </si>
+  <si>
+    <t>Leapton Mono 460</t>
+  </si>
+  <si>
+    <t>LP182*182-M-60-MH</t>
+  </si>
+  <si>
+    <t>LP182*182-M-78-MH</t>
+  </si>
+  <si>
+    <t>Leapton Mono 590</t>
+  </si>
+  <si>
+    <t>Leapton Mono 665</t>
+  </si>
+  <si>
+    <t>LP210*210-M-66-MH</t>
+  </si>
+  <si>
+    <t>ODA460-30V-MH</t>
+  </si>
+  <si>
+    <t>OSDA</t>
+  </si>
+  <si>
+    <t>Resun Mono 545</t>
+  </si>
+  <si>
+    <t>RESUN</t>
+  </si>
+  <si>
+    <t>RS8I-545M</t>
+  </si>
+  <si>
+    <t>Risen 385 Mono</t>
+  </si>
+  <si>
+    <t>RISEN</t>
+  </si>
+  <si>
+    <t>RSM144-6-385M</t>
+  </si>
+  <si>
+    <t>JINKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JKM335PP-72H-V </t>
+  </si>
+  <si>
+    <t>Jinko 335 Poli</t>
+  </si>
+  <si>
+    <t>Leapton Mono 550</t>
+  </si>
+  <si>
+    <t>Osda</t>
   </si>
 </sst>
 </file>
@@ -520,15 +574,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="55" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
@@ -550,7 +604,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -564,13 +618,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>505</v>
@@ -578,13 +632,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>450</v>
@@ -592,13 +646,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>435</v>
@@ -606,13 +660,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>440</v>
@@ -620,13 +674,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>545</v>
@@ -634,13 +688,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>330</v>
@@ -648,13 +702,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>375</v>
@@ -662,13 +716,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>380</v>
@@ -676,13 +730,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>400</v>
@@ -690,13 +744,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>400</v>
@@ -704,13 +758,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>440</v>
@@ -718,13 +772,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <v>440</v>
@@ -732,13 +786,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>450</v>
@@ -746,13 +800,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="2">
         <v>540</v>
@@ -760,13 +814,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
         <v>545</v>
@@ -774,13 +828,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2">
         <v>550</v>
@@ -788,13 +842,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="2">
         <v>330</v>
@@ -802,13 +856,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="2">
         <v>400</v>
@@ -816,16 +870,114 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D21" s="2">
         <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/placas.xlsx
+++ b/planilhas/placas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E36316B-6F50-4D50-B371-563CC9E8DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9CD4D-3165-4423-BC23-E707881A4C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>FABRICANTE</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>Osda</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>monocristalino</t>
+  </si>
+  <si>
+    <t>policristalino</t>
   </si>
 </sst>
 </file>
@@ -286,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -294,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,9 +596,10 @@
     <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -601,8 +612,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -615,8 +629,11 @@
       <c r="D2" s="2">
         <v>550</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -629,8 +646,11 @@
       <c r="D3" s="2">
         <v>505</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -643,8 +663,11 @@
       <c r="D4" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -657,8 +680,11 @@
       <c r="D5" s="2">
         <v>435</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -671,8 +697,11 @@
       <c r="D6" s="2">
         <v>440</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -685,8 +714,11 @@
       <c r="D7" s="2">
         <v>545</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -699,8 +731,11 @@
       <c r="D8" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -713,8 +748,11 @@
       <c r="D9" s="2">
         <v>375</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -727,8 +765,11 @@
       <c r="D10" s="2">
         <v>380</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -741,8 +782,11 @@
       <c r="D11" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -755,8 +799,11 @@
       <c r="D12" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -769,8 +816,11 @@
       <c r="D13" s="2">
         <v>440</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -783,8 +833,11 @@
       <c r="D14" s="2">
         <v>440</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -797,8 +850,11 @@
       <c r="D15" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -811,8 +867,11 @@
       <c r="D16" s="2">
         <v>540</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -825,8 +884,11 @@
       <c r="D17" s="2">
         <v>545</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -839,8 +901,11 @@
       <c r="D18" s="2">
         <v>550</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -853,8 +918,11 @@
       <c r="D19" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -867,8 +935,11 @@
       <c r="D20" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -881,8 +952,11 @@
       <c r="D21" s="2">
         <v>405</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -895,8 +969,11 @@
       <c r="D22" s="2">
         <v>460</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -909,8 +986,11 @@
       <c r="D23" s="2">
         <v>590</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -923,8 +1003,11 @@
       <c r="D24" s="2">
         <v>665</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -937,8 +1020,11 @@
       <c r="D25" s="2">
         <v>460</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -951,8 +1037,11 @@
       <c r="D26" s="2">
         <v>545</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -965,8 +1054,11 @@
       <c r="D27" s="2">
         <v>385</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -978,6 +1070,9 @@
       </c>
       <c r="D28" s="2">
         <v>335</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/placas.xlsx
+++ b/planilhas/placas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9CD4D-3165-4423-BC23-E707881A4C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA3402-EE8B-44A6-B35A-389184867586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>FABRICANTE</t>
   </si>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t>policristalino</t>
+  </si>
+  <si>
+    <t>BELENERGY</t>
+  </si>
+  <si>
+    <t>MFVHO-PO-156-460W</t>
+  </si>
+  <si>
+    <t>Belenergy 460 Poli</t>
+  </si>
+  <si>
+    <t>DAH 555 Mono Half Cell</t>
+  </si>
+  <si>
+    <t>Jinko 460 Mono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JKM460M-60HL4-V </t>
   </si>
 </sst>
 </file>
@@ -584,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1093,57 @@
         <v>69</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2">
+        <v>460</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2">
+        <v>555</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2">
+        <v>460</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planilhas/placas.xlsx
+++ b/planilhas/placas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA3402-EE8B-44A6-B35A-389184867586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54710D57-849C-408C-A47D-52C9D84162D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>FABRICANTE</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t xml:space="preserve">JKM460M-60HL4-V </t>
+  </si>
+  <si>
+    <t>Canadian 545</t>
+  </si>
+  <si>
+    <t>CS6W-545MS</t>
   </si>
 </sst>
 </file>
@@ -602,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1150,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="2">
+        <v>545</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planilhas/placas.xlsx
+++ b/planilhas/placas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54710D57-849C-408C-A47D-52C9D84162D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528CD24E-2508-4F2B-BE45-22708F24E9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>FABRICANTE</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>CS6W-545MS</t>
+  </si>
+  <si>
+    <t>Leapton Mono 560</t>
+  </si>
+  <si>
+    <t>Canadian 410</t>
+  </si>
+  <si>
+    <t>CS3W-410P</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,6 +1176,40 @@
         <v>68</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>560</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="2">
+        <v>410</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planilhas/placas.xlsx
+++ b/planilhas/placas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528CD24E-2508-4F2B-BE45-22708F24E9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A190AE-17C0-4F92-91E5-807F62BD1C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1210,9 @@
         <v>69</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
